--- a/inst/extdata/ex_urnfield_periods.xlsx
+++ b/inst/extdata/ex_urnfield_periods.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -398,7 +398,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
